--- a/TrabalhoPratico1.xlsx
+++ b/TrabalhoPratico1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/992b73d6ba6b8825/Ambiente de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\AoR 22_23\Programação Avançada em Java\Repositório Projetos\Projeto I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{F23E8BB6-8DAA-46B9-AFAE-835B18E32073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A37CE6C-0579-4797-A6C6-AF35D74E135B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8462355-2282-41D4-8AA6-F7526E244DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{897E2AD9-17E3-451D-BC3D-63158888475B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{897E2AD9-17E3-451D-BC3D-63158888475B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Grupo</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Atualizar a lista de atividades sempre que há alterações nos dados</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Rui</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,22 +333,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,10 +368,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,14 +670,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -694,7 +699,9 @@
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
@@ -704,7 +711,9 @@
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -713,7 +722,9 @@
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
@@ -722,7 +733,9 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
@@ -731,7 +744,9 @@
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
@@ -741,7 +756,9 @@
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
@@ -750,7 +767,9 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
@@ -759,7 +778,9 @@
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
@@ -768,7 +789,9 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
@@ -777,7 +800,9 @@
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1">
@@ -787,7 +812,9 @@
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1">
@@ -797,7 +824,9 @@
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1">
@@ -807,7 +836,9 @@
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1">
@@ -817,7 +848,9 @@
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="6" t="s">
@@ -826,7 +859,9 @@
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
